--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +94,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H2">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>5.602063516053673</v>
+        <v>2.316081895098749</v>
       </c>
       <c r="R2">
-        <v>5.602063516053673</v>
+        <v>9.264327580394998</v>
       </c>
       <c r="S2">
-        <v>0.5267070808686305</v>
+        <v>0.1040375456523518</v>
       </c>
       <c r="T2">
-        <v>0.5267070808686305</v>
+        <v>0.07602278007821886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H3">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>0.9890153148824871</v>
+        <v>0.46281568963</v>
       </c>
       <c r="R3">
-        <v>0.9890153148824871</v>
+        <v>2.77689413778</v>
       </c>
       <c r="S3">
-        <v>0.09298740864742691</v>
+        <v>0.02078951031066751</v>
       </c>
       <c r="T3">
-        <v>0.09298740864742691</v>
+        <v>0.02278710575645937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H4">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>3.151657735400657</v>
+        <v>0.005920451845</v>
       </c>
       <c r="R4">
-        <v>3.151657735400657</v>
+        <v>0.03552271107</v>
       </c>
       <c r="S4">
-        <v>0.296319461739929</v>
+        <v>0.0002659445162151643</v>
       </c>
       <c r="T4">
-        <v>0.296319461739929</v>
+        <v>0.000291498247230759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,1053 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2222225</v>
+      </c>
+      <c r="H5">
+        <v>0.444445</v>
+      </c>
+      <c r="I5">
+        <v>0.2026211956904957</v>
+      </c>
+      <c r="J5">
+        <v>0.1780425712608937</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N5">
+        <v>18.334645</v>
+      </c>
+      <c r="O5">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P5">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q5">
+        <v>1.358123549504167</v>
+      </c>
+      <c r="R5">
+        <v>8.148741297025001</v>
+      </c>
+      <c r="S5">
+        <v>0.06100640961016167</v>
+      </c>
+      <c r="T5">
+        <v>0.06686831420436655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.2222225</v>
+      </c>
+      <c r="H6">
+        <v>0.444445</v>
+      </c>
+      <c r="I6">
+        <v>0.2026211956904957</v>
+      </c>
+      <c r="J6">
+        <v>0.1780425712608937</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.6551325</v>
+      </c>
+      <c r="N6">
+        <v>3.310265</v>
+      </c>
+      <c r="O6">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P6">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q6">
+        <v>0.36780768198125</v>
+      </c>
+      <c r="R6">
+        <v>1.471230727925</v>
+      </c>
+      <c r="S6">
+        <v>0.01652178560109959</v>
+      </c>
+      <c r="T6">
+        <v>0.01207287297461813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.662143</v>
+      </c>
+      <c r="I7">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J7">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.4223555</v>
+      </c>
+      <c r="N7">
+        <v>20.844711</v>
+      </c>
+      <c r="O7">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P7">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q7">
+        <v>2.3003632459455</v>
+      </c>
+      <c r="R7">
+        <v>13.802179475673</v>
+      </c>
+      <c r="S7">
+        <v>0.1033314697219906</v>
+      </c>
+      <c r="T7">
+        <v>0.1132602496806851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.662143</v>
+      </c>
+      <c r="I8">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J8">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.082668</v>
+      </c>
+      <c r="N8">
+        <v>6.248004</v>
+      </c>
+      <c r="O8">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P8">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q8">
+        <v>0.4596746791746667</v>
+      </c>
+      <c r="R8">
+        <v>4.137072112572</v>
+      </c>
+      <c r="S8">
+        <v>0.02064841727793287</v>
+      </c>
+      <c r="T8">
+        <v>0.0339486833396692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.662143</v>
+      </c>
+      <c r="I9">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J9">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.026642</v>
+      </c>
+      <c r="N9">
+        <v>0.079926</v>
+      </c>
+      <c r="O9">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P9">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q9">
+        <v>0.005880271268666666</v>
+      </c>
+      <c r="R9">
+        <v>0.052922441418</v>
+      </c>
+      <c r="S9">
+        <v>0.0002641396195258619</v>
+      </c>
+      <c r="T9">
+        <v>0.0004342798859614046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.662143</v>
+      </c>
+      <c r="I10">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J10">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N10">
+        <v>18.334645</v>
+      </c>
+      <c r="O10">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P10">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q10">
+        <v>1.348906316026111</v>
+      </c>
+      <c r="R10">
+        <v>12.140156844235</v>
+      </c>
+      <c r="S10">
+        <v>0.06059237487728332</v>
+      </c>
+      <c r="T10">
+        <v>0.09962174436031877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.662143</v>
+      </c>
+      <c r="I11">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J11">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.6551325</v>
+      </c>
+      <c r="N11">
+        <v>3.310265</v>
+      </c>
+      <c r="O11">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P11">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q11">
+        <v>0.3653114663158334</v>
+      </c>
+      <c r="R11">
+        <v>2.191868797895</v>
+      </c>
+      <c r="S11">
+        <v>0.01640965651283269</v>
+      </c>
+      <c r="T11">
+        <v>0.01798640625956546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="H5">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N5">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O5">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P5">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q5">
-        <v>0.8932767312533877</v>
-      </c>
-      <c r="R5">
-        <v>0.8932767312533877</v>
-      </c>
-      <c r="S5">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="T5">
-        <v>0.08398604874401359</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.24628</v>
+      </c>
+      <c r="I12">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J12">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.4223555</v>
+      </c>
+      <c r="N12">
+        <v>20.844711</v>
+      </c>
+      <c r="O12">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P12">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q12">
+        <v>0.8556059041799999</v>
+      </c>
+      <c r="R12">
+        <v>5.13363542508</v>
+      </c>
+      <c r="S12">
+        <v>0.03843350207301421</v>
+      </c>
+      <c r="T12">
+        <v>0.04212645046668034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.24628</v>
+      </c>
+      <c r="I13">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J13">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.082668</v>
+      </c>
+      <c r="N13">
+        <v>6.248004</v>
+      </c>
+      <c r="O13">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P13">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q13">
+        <v>0.1709731583466667</v>
+      </c>
+      <c r="R13">
+        <v>1.53875842512</v>
+      </c>
+      <c r="S13">
+        <v>0.007680051298902667</v>
+      </c>
+      <c r="T13">
+        <v>0.01262700312907292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.24628</v>
+      </c>
+      <c r="I14">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J14">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.026642</v>
+      </c>
+      <c r="N14">
+        <v>0.079926</v>
+      </c>
+      <c r="O14">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P14">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q14">
+        <v>0.002187130586666667</v>
+      </c>
+      <c r="R14">
+        <v>0.01968417528</v>
+      </c>
+      <c r="S14">
+        <v>9.824510037383052E-05</v>
+      </c>
+      <c r="T14">
+        <v>0.0001615277218283282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.24628</v>
+      </c>
+      <c r="I15">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J15">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N15">
+        <v>18.334645</v>
+      </c>
+      <c r="O15">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P15">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q15">
+        <v>0.5017173745111112</v>
+      </c>
+      <c r="R15">
+        <v>4.515456370600001</v>
+      </c>
+      <c r="S15">
+        <v>0.02253695966698634</v>
+      </c>
+      <c r="T15">
+        <v>0.03705369263294984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.24628</v>
+      </c>
+      <c r="I16">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J16">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.6551325</v>
+      </c>
+      <c r="N16">
+        <v>3.310265</v>
+      </c>
+      <c r="O16">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P16">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q16">
+        <v>0.1358753440333333</v>
+      </c>
+      <c r="R16">
+        <v>0.8152520642000001</v>
+      </c>
+      <c r="S16">
+        <v>0.006103470407420203</v>
+      </c>
+      <c r="T16">
+        <v>0.00668993273900922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5717085</v>
+      </c>
+      <c r="H17">
+        <v>1.143417</v>
+      </c>
+      <c r="I17">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J17">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.4223555</v>
+      </c>
+      <c r="N17">
+        <v>20.844711</v>
+      </c>
+      <c r="O17">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P17">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q17">
+        <v>5.958549229371749</v>
+      </c>
+      <c r="R17">
+        <v>23.834196917487</v>
+      </c>
+      <c r="S17">
+        <v>0.2676558366888481</v>
+      </c>
+      <c r="T17">
+        <v>0.195582668561232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5717085</v>
+      </c>
+      <c r="H18">
+        <v>1.143417</v>
+      </c>
+      <c r="I18">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J18">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.082668</v>
+      </c>
+      <c r="N18">
+        <v>6.248004</v>
+      </c>
+      <c r="O18">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P18">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q18">
+        <v>1.190678998278</v>
+      </c>
+      <c r="R18">
+        <v>7.144073989668</v>
+      </c>
+      <c r="S18">
+        <v>0.05348486204343059</v>
+      </c>
+      <c r="T18">
+        <v>0.05862404595109293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5717085</v>
+      </c>
+      <c r="H19">
+        <v>1.143417</v>
+      </c>
+      <c r="I19">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J19">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.026642</v>
+      </c>
+      <c r="N19">
+        <v>0.079926</v>
+      </c>
+      <c r="O19">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P19">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q19">
+        <v>0.015231457857</v>
+      </c>
+      <c r="R19">
+        <v>0.09138874714199999</v>
+      </c>
+      <c r="S19">
+        <v>0.0006841914767793416</v>
+      </c>
+      <c r="T19">
+        <v>0.0007499331781296962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5717085</v>
+      </c>
+      <c r="H20">
+        <v>1.143417</v>
+      </c>
+      <c r="I20">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J20">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N20">
+        <v>18.334645</v>
+      </c>
+      <c r="O20">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P20">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q20">
+        <v>3.4940241303275</v>
+      </c>
+      <c r="R20">
+        <v>20.964144781965</v>
+      </c>
+      <c r="S20">
+        <v>0.1569502769909038</v>
+      </c>
+      <c r="T20">
+        <v>0.1720311112119929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5717085</v>
+      </c>
+      <c r="H21">
+        <v>1.143417</v>
+      </c>
+      <c r="I21">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J21">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.6551325</v>
+      </c>
+      <c r="N21">
+        <v>3.310265</v>
+      </c>
+      <c r="O21">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P21">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q21">
+        <v>0.94625331887625</v>
+      </c>
+      <c r="R21">
+        <v>3.785013275505</v>
+      </c>
+      <c r="S21">
+        <v>0.04250535055327992</v>
+      </c>
+      <c r="T21">
+        <v>0.03105969962091808</v>
       </c>
     </row>
   </sheetData>
